--- a/config_12.15/fish_3d_yutu_random_2.xlsx
+++ b/config_12.15/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,22 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,136,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34,137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +369,22 @@
   </si>
   <si>
     <t>40,141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
@@ -1246,7 +1246,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1266,7 +1266,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1286,7 +1286,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1471,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1787,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="24">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="24">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="23">
         <v>2</v>
@@ -1835,7 +1835,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="24">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="23">
         <v>2</v>
@@ -1859,7 +1859,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="24">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="23">
         <v>2</v>
@@ -1873,6 +1873,102 @@
       </c>
       <c r="H16" s="24">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="14">
+        <v>74</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14">
+        <v>75</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14">
+        <v>76</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="14">
+        <v>77</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -2070,8 +2166,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>53</v>
@@ -2139,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -2156,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>54</v>
@@ -2173,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>
